--- a/src/test/resources/Countries.xlsx
+++ b/src/test/resources/Countries.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufjon/IdeaProjects/fall-2019-selenium-project/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0457DF-5D73-A544-BE4A-0C311AEC1A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{91ED3504-8F9D-994C-9701-E99A78B95D4B}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Countries" sheetId="2" r:id="rId1"/>
-    <sheet name="Cities" sheetId="1" r:id="rId2"/>
+    <sheet name="Countries" sheetId="2" r:id="rId3"/>
+    <sheet name="Cities" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Country</t>
   </si>
@@ -49,60 +48,6 @@
     <t>Kazahstan</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Ankara</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Kiev</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Moskow</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Tehran</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Tashkent</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Bishkek</t>
-  </si>
-  <si>
-    <t>Kabul</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mexico city</t>
-  </si>
-  <si>
-    <t>Dushanbe</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -139,12 +84,6 @@
     <t>Osaka</t>
   </si>
   <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guatemala City</t>
-  </si>
-  <si>
     <t>Execute</t>
   </si>
   <si>
@@ -154,48 +93,9 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Rabat</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Yerevan</t>
-  </si>
-  <si>
-    <t>Chisinau</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Addis Ababa</t>
-  </si>
-  <si>
-    <t>Minsk</t>
-  </si>
-  <si>
-    <t>Kyrgyz Republic</t>
-  </si>
-  <si>
     <t>Nursultan</t>
   </si>
   <si>
-    <t>Asmara</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -214,26 +114,33 @@
     <t/>
   </si>
   <si>
-    <t>Moscow</t>
-  </si>
-  <si>
-    <t>Chișinău</t>
-  </si>
-  <si>
-    <t>Algiers</t>
+    <t>SKIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,18 +160,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -572,23 +577,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE3AD6B-2764-CA44-8845-C5296D7C5983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE3AD6B-2764-CA44-8845-C5296D7C5983}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="400" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0" topLeftCell="A14">
+      <selection pane="topLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.255" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -597,15 +602,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -614,15 +619,15 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -631,381 +636,271 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC3648-E8E8-9448-9152-C17D7B392B16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC3648-E8E8-9448-9152-C17D7B392B16}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="342" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="342" zoomScaleNormal="342" workbookViewId="0" topLeftCell="A4">
+      <selection pane="topLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.255" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>37435191</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>29399141</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>26317104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>21846507</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>21671908</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>20484965</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="16">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>20283552</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="16">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>20185064</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="16">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>20035455</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="16">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>19222665</v>
@@ -1013,5 +908,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>